--- a/tine20/Addressbook/Export/templates/addressbook_list_overview.xlsx
+++ b/tine20/Addressbook/Export/templates/addressbook_list_overview.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8780" yWindow="1580" windowWidth="20620" windowHeight="13220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24500" windowHeight="14860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,24 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>${twig:branding.title}</t>
   </si>
   <si>
-    <t>${twig:translate('Description')}</t>
-  </si>
-  <si>
     <t>${twig:translate('Email')}</t>
-  </si>
-  <si>
-    <t>${twig:translate('Location')}</t>
-  </si>
-  <si>
-    <t>${twig:record.location.getTitle()}</t>
-  </si>
-  <si>
-    <t>${twig:record.description}${/ROW}</t>
   </si>
   <si>
     <t>${twig:translate('Account')} ${twig:export.account.accountDisplayName}</t>
@@ -311,16 +299,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>112903</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2894203</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47037</xdr:rowOff>
+      <xdr:rowOff>72437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2085308</xdr:colOff>
+      <xdr:colOff>1894808</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>528621</xdr:rowOff>
+      <xdr:rowOff>554021</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -343,7 +331,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6745125" y="47037"/>
+          <a:off x="7351903" y="72437"/>
           <a:ext cx="1972405" cy="481584"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -619,23 +607,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="30" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.5" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="2"/>
+    <col min="4" max="4" width="39" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -643,9 +631,9 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -653,12 +641,10 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -666,62 +652,45 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
     </row>
-    <row r="5" spans="1:9" s="10" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.51" footer="0.51"/>
-  <pageSetup paperSize="9" scale="88" firstPageNumber="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="7" max="1048575" man="1"/>
-  </colBreaks>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tine20/Addressbook/Export/templates/addressbook_list_overview.xlsx
+++ b/tine20/Addressbook/Export/templates/addressbook_list_overview.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pzornsch/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mspahn/Workspace/tine20.com/tine20/Addressbook/Export/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24500" windowHeight="14860" tabRatio="500"/>
+    <workbookView xWindow="1420" yWindow="1600" windowWidth="24500" windowHeight="14860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -59,19 +59,19 @@
     <t>${twig:record.list_type}</t>
   </si>
   <si>
-    <t>${twig:record.members}</t>
-  </si>
-  <si>
     <t>${twig:translate('Name')}</t>
   </si>
   <si>
     <t>${twig:record.emails}${/ROW}</t>
+  </si>
+  <si>
+    <t>${twig:record.getListMembersWithFunctions()}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -211,11 +211,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -291,6 +291,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -312,7 +315,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Bild 2" descr="${twig:branding.logo}"/>
+        <xdr:cNvPr id="3" name="Bild 2" descr="${twig:branding.logo}">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -606,11 +615,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -658,7 +667,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>8</v>
@@ -681,10 +690,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/tine20/Addressbook/Export/templates/addressbook_list_overview.xlsx
+++ b/tine20/Addressbook/Export/templates/addressbook_list_overview.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mspahn/Workspace/tine20.com/tine20/Addressbook/Export/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nelius/src/tine20.git/tine20/Addressbook/Export/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C32D773-892C-0D4A-AAFD-6D889959ACF5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1420" yWindow="1600" windowWidth="24500" windowHeight="14860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,15 +51,6 @@
     <t>${twig:translate('Type')}</t>
   </si>
   <si>
-    <t>${ROW}${twig:record.type}</t>
-  </si>
-  <si>
-    <t>${twig:translate('List Type')}</t>
-  </si>
-  <si>
-    <t>${twig:record.list_type}</t>
-  </si>
-  <si>
     <t>${twig:translate('Name')}</t>
   </si>
   <si>
@@ -66,6 +58,15 @@
   </si>
   <si>
     <t>${twig:record.getListMembersWithFunctions()}</t>
+  </si>
+  <si>
+    <t>${twig:keyField('Addressbook','listType',record.list_type)}</t>
+  </si>
+  <si>
+    <t>${twig:translate('List type')}</t>
+  </si>
+  <si>
+    <t>${ROW}${twig:listType(record)}</t>
   </si>
 </sst>
 </file>
@@ -211,11 +212,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -619,7 +620,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -667,10 +668,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>5</v>
@@ -679,21 +680,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
